--- a/WebApplication1/WebApplication1/FileExcel/SinhVien.xlsx
+++ b/WebApplication1/WebApplication1/FileExcel/SinhVien.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6BDB5159-22B8-46D3-8C1D-98DE4366477A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82074615-9857-446A-AE50-80873207D9B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,13 @@
     <t>TRANG_THAI</t>
   </si>
   <si>
-    <t>Phùng Anh Dũng</t>
-  </si>
-  <si>
     <t>Quảng Nam</t>
   </si>
   <si>
     <t>phunganhdung@gmail.com</t>
+  </si>
+  <si>
+    <t>Phùng Anh Nghĩa</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +415,7 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -451,10 +451,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2121116299</v>
+        <v>2121110000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>35310</v>
@@ -466,10 +466,10 @@
         <v>101010101</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>

--- a/WebApplication1/WebApplication1/FileExcel/SinhVien.xlsx
+++ b/WebApplication1/WebApplication1/FileExcel/SinhVien.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{82074615-9857-446A-AE50-80873207D9B8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CB6243E2-4B0C-4854-8337-526AE213DA96}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>MA_SINH_VIEN</t>
   </si>
@@ -52,10 +52,19 @@
     <t>Quảng Nam</t>
   </si>
   <si>
-    <t>phunganhdung@gmail.com</t>
-  </si>
-  <si>
-    <t>Phùng Anh Nghĩa</t>
+    <t>Ngô Thị Thanh</t>
+  </si>
+  <si>
+    <t>phuongthanhdtu97@gmail.com</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Bửu</t>
+  </si>
+  <si>
+    <t>Huế</t>
+  </si>
+  <si>
+    <t>tranhoangbuu66@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -71,22 +80,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF464646"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF464646"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,15 +122,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -401,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +428,7 @@
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -449,40 +462,70 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2121110000</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2121114026</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>35587</v>
+      </c>
+      <c r="D2" s="6">
+        <v>191911561</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1266625412</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2120126377</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>35474</v>
+      </c>
+      <c r="D3" s="1">
+        <v>206198022</v>
+      </c>
+      <c r="E3" s="1">
+        <v>979073672</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
-        <v>35310</v>
-      </c>
-      <c r="D2" s="2">
-        <v>192196144</v>
-      </c>
-      <c r="E2" s="2">
-        <v>101010101</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{A7371B7D-BC06-4AF9-8211-082361E65EE2}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{65EEB96E-B060-4C19-80B3-D4247ABC2FAF}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{A2EF1B1E-C78C-42D8-A1D5-82578355981E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>